--- a/stats.xlsx
+++ b/stats.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="18">
   <si>
     <t>file</t>
   </si>
@@ -54,12 +54,27 @@
   <si>
     <t>ratio</t>
   </si>
+  <si>
+    <t>file/seconds</t>
+  </si>
+  <si>
+    <t>file/nodes</t>
+  </si>
+  <si>
+    <t>file/steps</t>
+  </si>
+  <si>
+    <t>A* star graph search</t>
+  </si>
+  <si>
+    <t>uniformed graph search</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -67,8 +82,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -87,6 +110,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -100,11 +129,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -157,8 +189,23 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="fr-FR"/>
-              <a:t>Seconds</a:t>
+              <a:t>Seconds -</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="fr-FR" b="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="fr-FR" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>A* star graph search</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="fr-FR" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:endParaRPr lang="fr-FR" b="0"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -204,7 +251,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Feuil1!$B$1</c:f>
+              <c:f>Feuil1!$B$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -225,7 +272,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Feuil1!$A$2:$A$6</c:f>
+              <c:f>Feuil1!$A$3:$A$7</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -248,7 +295,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Feuil1!$B$2:$B$6</c:f>
+              <c:f>Feuil1!$B$3:$B$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -281,8 +328,8 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="79811968"/>
-        <c:axId val="79803808"/>
+        <c:axId val="227851792"/>
+        <c:axId val="227846896"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredBarSeries>
@@ -294,7 +341,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Feuil1!$C$1</c15:sqref>
+                          <c15:sqref>Feuil1!$C$2</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -321,7 +368,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Feuil1!$A$2:$A$6</c15:sqref>
+                          <c15:sqref>Feuil1!$A$3:$A$7</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -350,7 +397,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Feuil1!$C$2:$C$6</c15:sqref>
+                          <c15:sqref>Feuil1!$C$3:$C$7</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -383,10 +430,10 @@
                 <c:order val="2"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Feuil1!$D$1</c15:sqref>
+                          <c15:sqref>Feuil1!$D$2</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -410,10 +457,10 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Feuil1!$A$2:$A$6</c15:sqref>
+                          <c15:sqref>Feuil1!$A$3:$A$7</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -439,10 +486,10 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Feuil1!$D$2:$D$6</c15:sqref>
+                          <c15:sqref>Feuil1!$D$3:$D$7</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -473,7 +520,7 @@
         </c:extLst>
       </c:barChart>
       <c:catAx>
-        <c:axId val="79811968"/>
+        <c:axId val="227851792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -516,7 +563,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="79803808"/>
+        <c:crossAx val="227846896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -524,7 +571,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="79803808"/>
+        <c:axId val="227846896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -575,7 +622,1793 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="79811968"/>
+        <c:crossAx val="227851792"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-FR"/>
+              <a:t>Seconds</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="fr-FR" b="0"/>
+              <a:t> - </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="fr-FR" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>A* versus uniformed</a:t>
+            </a:r>
+            <a:endParaRPr lang="fr-FR" b="0"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Feuil1!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>A* star graph search</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Feuil1!$A$20:$A$24</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>sokoInst01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>sokoInst02</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>sokoInst07</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>sokoInst08</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>sokoInst15</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Feuil1!$B$3:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.19112896919250399</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0927269458770701</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.74349403381347601</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.98766016960143999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14.657764911651601</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Feuil1!$A$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>uniformed graph search</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Feuil1!$B$20:$B$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.49232792854308999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.8532340526580802</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.08138704299926</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.0180099010467498</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>165.76142096519399</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="227350624"/>
+        <c:axId val="227357152"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Feuil1!$C$19</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>nodes explored</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent2"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Feuil1!$A$20:$A$24</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="5"/>
+                      <c:pt idx="0">
+                        <c:v>sokoInst01</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>sokoInst02</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>sokoInst07</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>sokoInst08</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>sokoInst15</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Feuil1!$C$20:$C$24</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="5"/>
+                      <c:pt idx="0">
+                        <c:v>3825</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>30541</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>9522</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>13649</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>810820</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="2"/>
+                <c:order val="2"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Feuil1!$D$19</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>steps</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent3"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Feuil1!$A$20:$A$24</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="5"/>
+                      <c:pt idx="0">
+                        <c:v>sokoInst01</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>sokoInst02</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>sokoInst07</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>sokoInst08</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>sokoInst15</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Feuil1!$D$20:$D$24</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="5"/>
+                      <c:pt idx="0">
+                        <c:v>14</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>64</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>97</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>89</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>55</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="227350624"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="227357152"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="227357152"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="227350624"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-FR"/>
+              <a:t>Nodes</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="fr-FR" baseline="0"/>
+              <a:t> explored </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="fr-FR" b="0"/>
+              <a:t>- </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="fr-FR" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>A* versus uniformed</a:t>
+            </a:r>
+            <a:endParaRPr lang="fr-FR" b="0"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Feuil1!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>A* star graph search</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Feuil1!$A$20:$A$24</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>sokoInst01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>sokoInst02</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>sokoInst07</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>sokoInst08</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>sokoInst15</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Feuil1!$C$3:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1506</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5772</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4449</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>60583</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Feuil1!$A$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>uniformed graph search</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Feuil1!$C$20:$C$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3825</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30541</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9522</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13649</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>810820</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="227352800"/>
+        <c:axId val="227359872"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Feuil1!$C$19</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>nodes explored</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent2"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Feuil1!$A$20:$A$24</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="5"/>
+                      <c:pt idx="0">
+                        <c:v>sokoInst01</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>sokoInst02</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>sokoInst07</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>sokoInst08</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>sokoInst15</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Feuil1!$C$20:$C$24</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="5"/>
+                      <c:pt idx="0">
+                        <c:v>3825</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>30541</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>9522</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>13649</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>810820</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="2"/>
+                <c:order val="2"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Feuil1!$D$19</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>steps</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent3"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Feuil1!$A$20:$A$24</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="5"/>
+                      <c:pt idx="0">
+                        <c:v>sokoInst01</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>sokoInst02</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>sokoInst07</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>sokoInst08</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>sokoInst15</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Feuil1!$D$20:$D$24</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="5"/>
+                      <c:pt idx="0">
+                        <c:v>14</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>64</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>97</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>89</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>55</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="227352800"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="227359872"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="227359872"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="227352800"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-FR"/>
+              <a:t>Steps </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="fr-FR" b="0"/>
+              <a:t>- </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="fr-FR" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>A* versus uniformed</a:t>
+            </a:r>
+            <a:endParaRPr lang="fr-FR" b="0"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Feuil1!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>A* star graph search</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Feuil1!$A$20:$A$24</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>sokoInst01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>sokoInst02</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>sokoInst07</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>sokoInst08</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>sokoInst15</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Feuil1!$D$3:$D$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>55</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Feuil1!$A$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>uniformed graph search</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Feuil1!$D$20:$D$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>55</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="227346816"/>
+        <c:axId val="227357696"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Feuil1!$C$19</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>nodes explored</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent2"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Feuil1!$A$20:$A$24</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="5"/>
+                      <c:pt idx="0">
+                        <c:v>sokoInst01</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>sokoInst02</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>sokoInst07</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>sokoInst08</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>sokoInst15</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Feuil1!$C$20:$C$24</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="5"/>
+                      <c:pt idx="0">
+                        <c:v>3825</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>30541</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>9522</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>13649</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>810820</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="2"/>
+                <c:order val="2"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Feuil1!$D$19</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>steps</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent3"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Feuil1!$A$20:$A$24</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="5"/>
+                      <c:pt idx="0">
+                        <c:v>sokoInst01</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>sokoInst02</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>sokoInst07</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>sokoInst08</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>sokoInst15</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Feuil1!$D$20:$D$24</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="5"/>
+                      <c:pt idx="0">
+                        <c:v>14</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>64</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>97</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>89</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>55</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="227346816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="227357696"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="227357696"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="227346816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -693,6 +2526,13 @@
               <a:rPr lang="fr-FR"/>
               <a:t>Nodes explored</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="fr-FR" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t> - A* star graph search </a:t>
+            </a:r>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -738,7 +2578,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Feuil1!$C$1</c:f>
+              <c:f>Feuil1!$C$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -760,7 +2600,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Feuil1!$A$2:$A$6</c:f>
+              <c:f>Feuil1!$A$3:$A$7</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -784,7 +2624,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Feuil1!$C$2:$C$6</c:f>
+              <c:f>Feuil1!$C$3:$C$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -818,8 +2658,8 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="451327280"/>
-        <c:axId val="451322928"/>
+        <c:axId val="227852336"/>
+        <c:axId val="444197184"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredBarSeries>
@@ -831,7 +2671,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Feuil1!$B$1</c15:sqref>
+                          <c15:sqref>Feuil1!$B$2</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -858,7 +2698,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Feuil1!$A$2:$A$6</c15:sqref>
+                          <c15:sqref>Feuil1!$A$3:$A$7</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -887,7 +2727,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Feuil1!$B$2:$B$6</c15:sqref>
+                          <c15:sqref>Feuil1!$B$3:$B$7</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -923,7 +2763,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Feuil1!$D$1</c15:sqref>
+                          <c15:sqref>Feuil1!$D$2</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -950,7 +2790,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Feuil1!$A$2:$A$6</c15:sqref>
+                          <c15:sqref>Feuil1!$A$3:$A$7</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -979,7 +2819,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Feuil1!$D$2:$D$6</c15:sqref>
+                          <c15:sqref>Feuil1!$D$3:$D$7</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -1010,7 +2850,7 @@
         </c:extLst>
       </c:barChart>
       <c:catAx>
-        <c:axId val="451327280"/>
+        <c:axId val="227852336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1053,7 +2893,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="451322928"/>
+        <c:crossAx val="444197184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1061,7 +2901,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="451322928"/>
+        <c:axId val="444197184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1112,7 +2952,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="451327280"/>
+        <c:crossAx val="227852336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1230,6 +3070,13 @@
               <a:rPr lang="fr-FR"/>
               <a:t>Steps</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="fr-FR" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t> - A* star graph search </a:t>
+            </a:r>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1275,7 +3122,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Feuil1!$D$1</c:f>
+              <c:f>Feuil1!$D$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1297,7 +3144,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Feuil1!$A$2:$A$6</c:f>
+              <c:f>Feuil1!$A$3:$A$7</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -1321,7 +3168,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Feuil1!$D$2:$D$6</c:f>
+              <c:f>Feuil1!$D$3:$D$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1355,8 +3202,8 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="451320752"/>
-        <c:axId val="451327824"/>
+        <c:axId val="444199360"/>
+        <c:axId val="444205344"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredBarSeries>
@@ -1368,7 +3215,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Feuil1!$B$1</c15:sqref>
+                          <c15:sqref>Feuil1!$B$2</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -1395,7 +3242,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Feuil1!$A$2:$A$6</c15:sqref>
+                          <c15:sqref>Feuil1!$A$3:$A$7</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -1424,7 +3271,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Feuil1!$B$2:$B$6</c15:sqref>
+                          <c15:sqref>Feuil1!$B$3:$B$7</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -1460,7 +3307,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Feuil1!$C$1</c15:sqref>
+                          <c15:sqref>Feuil1!$C$2</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -1487,7 +3334,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Feuil1!$A$2:$A$6</c15:sqref>
+                          <c15:sqref>Feuil1!$A$3:$A$7</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -1516,7 +3363,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Feuil1!$C$2:$C$6</c15:sqref>
+                          <c15:sqref>Feuil1!$C$3:$C$7</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -1547,7 +3394,7 @@
         </c:extLst>
       </c:barChart>
       <c:catAx>
-        <c:axId val="451320752"/>
+        <c:axId val="444199360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1590,7 +3437,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="451327824"/>
+        <c:crossAx val="444205344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1598,7 +3445,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="451327824"/>
+        <c:axId val="444205344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1649,7 +3496,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="451320752"/>
+        <c:crossAx val="444199360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1765,8 +3612,13 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="fr-FR"/>
-              <a:t>Seconds</a:t>
+              <a:t>Seconds - With versus</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="fr-FR" baseline="0"/>
+              <a:t> without dead states detection</a:t>
+            </a:r>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1812,7 +3664,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Feuil1!$B$42</c:f>
+              <c:f>Feuil1!$B$62</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1833,7 +3685,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Feuil1!$A$43:$A$47</c:f>
+              <c:f>Feuil1!$A$63:$A$67</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -1856,7 +3708,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Feuil1!$B$43:$B$47</c:f>
+              <c:f>Feuil1!$B$63:$B$67</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1884,7 +3736,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Feuil1!$C$42</c:f>
+              <c:f>Feuil1!$C$62</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1905,7 +3757,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Feuil1!$A$43:$A$47</c:f>
+              <c:f>Feuil1!$A$63:$A$67</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -1928,7 +3780,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Feuil1!$C$43:$C$47</c:f>
+              <c:f>Feuil1!$C$63:$C$67</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1961,11 +3813,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="80511680"/>
-        <c:axId val="80517664"/>
+        <c:axId val="444196096"/>
+        <c:axId val="444200448"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="80511680"/>
+        <c:axId val="444196096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2008,7 +3860,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="80517664"/>
+        <c:crossAx val="444200448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2016,7 +3868,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="80517664"/>
+        <c:axId val="444200448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2067,7 +3919,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="80511680"/>
+        <c:crossAx val="444196096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2185,6 +4037,13 @@
               <a:rPr lang="fr-FR"/>
               <a:t>Nodes explored</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="fr-FR" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t> - With versus without dead states detection</a:t>
+            </a:r>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -2230,7 +4089,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Feuil1!$B$49</c:f>
+              <c:f>Feuil1!$B$69</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2251,7 +4110,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Feuil1!$A$50:$A$54</c:f>
+              <c:f>Feuil1!$A$70:$A$74</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -2274,7 +4133,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Feuil1!$B$50:$B$54</c:f>
+              <c:f>Feuil1!$B$70:$B$74</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2302,7 +4161,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Feuil1!$C$49</c:f>
+              <c:f>Feuil1!$C$69</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2323,7 +4182,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Feuil1!$A$50:$A$54</c:f>
+              <c:f>Feuil1!$A$70:$A$74</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -2346,7 +4205,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Feuil1!$C$50:$C$54</c:f>
+              <c:f>Feuil1!$C$70:$C$74</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2379,11 +4238,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="312792176"/>
-        <c:axId val="312790000"/>
+        <c:axId val="444202624"/>
+        <c:axId val="444197728"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="312792176"/>
+        <c:axId val="444202624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2426,7 +4285,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="312790000"/>
+        <c:crossAx val="444197728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2434,7 +4293,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="312790000"/>
+        <c:axId val="444197728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2485,7 +4344,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="312792176"/>
+        <c:crossAx val="444202624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2603,6 +4462,13 @@
               <a:rPr lang="fr-FR"/>
               <a:t>Steps</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="fr-FR" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t> - With versus without dead states detection</a:t>
+            </a:r>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -2648,7 +4514,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Feuil1!$B$56</c:f>
+              <c:f>Feuil1!$B$76</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2669,7 +4535,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Feuil1!$A$57:$A$61</c:f>
+              <c:f>Feuil1!$A$77:$A$81</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -2692,7 +4558,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Feuil1!$B$57:$B$61</c:f>
+              <c:f>Feuil1!$B$77:$B$81</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2720,7 +4586,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Feuil1!$C$56</c:f>
+              <c:f>Feuil1!$C$76</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2741,7 +4607,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Feuil1!$A$57:$A$61</c:f>
+              <c:f>Feuil1!$A$77:$A$81</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -2764,7 +4630,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Feuil1!$C$57:$C$61</c:f>
+              <c:f>Feuil1!$C$77:$C$81</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2797,11 +4663,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="318192672"/>
-        <c:axId val="318193216"/>
+        <c:axId val="444202080"/>
+        <c:axId val="444193920"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="318192672"/>
+        <c:axId val="444202080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2844,7 +4710,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="318193216"/>
+        <c:crossAx val="444193920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2852,7 +4718,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="318193216"/>
+        <c:axId val="444193920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2903,7 +4769,1638 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="318192672"/>
+        <c:crossAx val="444202080"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-FR"/>
+              <a:t>Seconds</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="fr-FR" b="0"/>
+              <a:t> - </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="fr-FR" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>uniformed graph search</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="fr-FR" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:endParaRPr lang="fr-FR" b="0"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Feuil1!$B$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>seconds</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Feuil1!$A$20:$A$24</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>sokoInst01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>sokoInst02</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>sokoInst07</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>sokoInst08</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>sokoInst15</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Feuil1!$B$20:$B$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.49232792854308999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.8532340526580802</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.08138704299926</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.0180099010467498</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>165.76142096519399</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="444191200"/>
+        <c:axId val="444192832"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Feuil1!$C$19</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>nodes explored</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent2"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Feuil1!$A$20:$A$24</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="5"/>
+                      <c:pt idx="0">
+                        <c:v>sokoInst01</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>sokoInst02</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>sokoInst07</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>sokoInst08</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>sokoInst15</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Feuil1!$C$20:$C$24</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="5"/>
+                      <c:pt idx="0">
+                        <c:v>3825</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>30541</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>9522</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>13649</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>810820</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="2"/>
+                <c:order val="2"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Feuil1!$D$19</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>steps</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent3"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Feuil1!$A$20:$A$24</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="5"/>
+                      <c:pt idx="0">
+                        <c:v>sokoInst01</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>sokoInst02</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>sokoInst07</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>sokoInst08</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>sokoInst15</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Feuil1!$D$20:$D$24</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="5"/>
+                      <c:pt idx="0">
+                        <c:v>14</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>64</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>97</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>89</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>55</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="444191200"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="444192832"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="444192832"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="444191200"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-FR"/>
+              <a:t>Nodes explored</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="fr-FR" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t> - uniformed graph search </a:t>
+            </a:r>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Feuil1!$C$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>nodes explored</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Feuil1!$A$20:$A$24</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>sokoInst01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>sokoInst02</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>sokoInst07</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>sokoInst08</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>sokoInst15</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Feuil1!$C$20:$C$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3825</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30541</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9522</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13649</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>810820</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="227844720"/>
+        <c:axId val="227845264"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Feuil1!$B$19</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>seconds</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Feuil1!$A$20:$A$24</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="5"/>
+                      <c:pt idx="0">
+                        <c:v>sokoInst01</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>sokoInst02</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>sokoInst07</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>sokoInst08</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>sokoInst15</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Feuil1!$B$20:$B$24</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="5"/>
+                      <c:pt idx="0">
+                        <c:v>0.49232792854308999</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>4.8532340526580802</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2.08138704299926</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>3.0180099010467498</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>165.76142096519399</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="2"/>
+                <c:order val="2"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Feuil1!$D$19</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>steps</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent3"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Feuil1!$A$20:$A$24</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="5"/>
+                      <c:pt idx="0">
+                        <c:v>sokoInst01</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>sokoInst02</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>sokoInst07</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>sokoInst08</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>sokoInst15</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Feuil1!$D$20:$D$24</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="5"/>
+                      <c:pt idx="0">
+                        <c:v>14</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>64</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>97</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>89</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>55</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="227844720"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="227845264"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="227845264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="227844720"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-FR"/>
+              <a:t>Steps</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="fr-FR" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t> - uniformed graph search </a:t>
+            </a:r>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Feuil1!$D$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>steps</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Feuil1!$A$20:$A$24</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>sokoInst01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>sokoInst02</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>sokoInst07</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>sokoInst08</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>sokoInst15</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Feuil1!$D$20:$D$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>55</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="659235760"/>
+        <c:axId val="659241200"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Feuil1!$B$19</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>seconds</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Feuil1!$A$20:$A$24</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="5"/>
+                      <c:pt idx="0">
+                        <c:v>sokoInst01</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>sokoInst02</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>sokoInst07</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>sokoInst08</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>sokoInst15</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Feuil1!$B$20:$B$24</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="5"/>
+                      <c:pt idx="0">
+                        <c:v>0.49232792854308999</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>4.8532340526580802</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2.08138704299926</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>3.0180099010467498</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>165.76142096519399</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Feuil1!$C$19</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>nodes explored</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent2"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Feuil1!$A$20:$A$24</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="5"/>
+                      <c:pt idx="0">
+                        <c:v>sokoInst01</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>sokoInst02</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>sokoInst07</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>sokoInst08</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>sokoInst15</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Feuil1!$C$20:$C$24</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="5"/>
+                      <c:pt idx="0">
+                        <c:v>3825</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>30541</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>9522</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>13649</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>810820</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="659235760"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="659241200"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="659241200"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="659235760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2985,6 +6482,126 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -3224,6 +6841,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -3727,7 +7464,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4230,7 +7967,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4733,7 +8470,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5236,7 +8973,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5739,7 +9476,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6242,20 +9979,3038 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>157162</xdr:rowOff>
+      <xdr:rowOff>61912</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>42862</xdr:rowOff>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6276,16 +13031,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6308,16 +13063,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6341,15 +13096,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>157162</xdr:rowOff>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>42862</xdr:rowOff>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6372,13 +13127,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>52387</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>128587</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -6402,13 +13157,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>61912</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>78</xdr:row>
+      <xdr:row>98</xdr:row>
       <xdr:rowOff>138112</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -6423,6 +13178,196 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Graphique 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="12" name="Graphique 11"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="13" name="Graphique 12"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="14" name="Graphique 13"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="15" name="Graphique 14"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="16" name="Graphique 15"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId12"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -6718,457 +13663,556 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D61"/>
+  <dimension ref="A1:D81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E47" sqref="E47"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="P67" sqref="P67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="12.5703125" customWidth="1"/>
     <col min="2" max="2" width="22.140625" customWidth="1"/>
     <col min="3" max="3" width="28.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
+      <c r="A1" s="6" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2">
-        <v>0.19112896919250399</v>
-      </c>
-      <c r="C2" s="2">
-        <v>1506</v>
-      </c>
-      <c r="D2" s="2">
-        <v>14</v>
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" s="2">
-        <v>1.0927269458770701</v>
+        <v>0.19112896919250399</v>
       </c>
       <c r="C3" s="2">
-        <v>5772</v>
+        <v>1506</v>
       </c>
       <c r="D3" s="2">
-        <v>64</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" s="2">
-        <v>0.74349403381347601</v>
+        <v>1.0927269458770701</v>
       </c>
       <c r="C4" s="2">
-        <v>3500</v>
+        <v>5772</v>
       </c>
       <c r="D4" s="2">
-        <v>97</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" s="2">
-        <v>0.98766016960143999</v>
+        <v>0.74349403381347601</v>
       </c>
       <c r="C5" s="2">
-        <v>4449</v>
+        <v>3500</v>
       </c>
       <c r="D5" s="2">
-        <v>89</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0.98766016960143999</v>
+      </c>
+      <c r="C6" s="2">
+        <v>4449</v>
+      </c>
+      <c r="D6" s="2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B7" s="2">
         <v>14.657764911651601</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C7" s="2">
         <v>60583</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D7" s="2">
         <v>55</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="4">
+        <v>0.49232792854308999</v>
+      </c>
+      <c r="C20" s="4">
+        <v>3825</v>
+      </c>
+      <c r="D20" s="4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" s="4">
+        <v>4.8532340526580802</v>
+      </c>
+      <c r="C21" s="4">
+        <v>30541</v>
+      </c>
+      <c r="D21" s="4">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" s="4">
+        <v>2.08138704299926</v>
+      </c>
+      <c r="C22" s="4">
+        <v>9522</v>
+      </c>
+      <c r="D22" s="4">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" s="4">
+        <v>3.0180099010467498</v>
+      </c>
+      <c r="C23" s="4">
+        <v>13649</v>
+      </c>
+      <c r="D23" s="4">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" s="4">
+        <v>165.76142096519399</v>
+      </c>
+      <c r="C24" s="4">
+        <v>810820</v>
+      </c>
+      <c r="D24" s="4">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B55" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C55" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="D55" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B36" s="1">
+      <c r="B56" s="1">
         <v>0.197131156921386</v>
       </c>
-      <c r="C36" s="1">
+      <c r="C56" s="1">
         <v>1611</v>
       </c>
-      <c r="D36" s="1">
+      <c r="D56" s="1">
         <v>14</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B37" s="1">
+      <c r="B57" s="1">
         <v>5.2404909133911097</v>
       </c>
-      <c r="C37" s="1">
+      <c r="C57" s="1">
         <v>29133</v>
       </c>
-      <c r="D37" s="1">
+      <c r="D57" s="1">
         <v>64</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B38" s="1">
+      <c r="B58" s="1">
         <v>1.7961950302123999</v>
       </c>
-      <c r="C38" s="1">
+      <c r="C58" s="1">
         <v>8673</v>
       </c>
-      <c r="D38" s="1">
+      <c r="D58" s="1">
         <v>97</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B39" s="1">
+      <c r="B59" s="1">
         <v>2.9849898815154998</v>
       </c>
-      <c r="C39" s="1">
+      <c r="C59" s="1">
         <v>13365</v>
       </c>
-      <c r="D39" s="1">
+      <c r="D59" s="1">
         <v>89</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B40" s="1">
+      <c r="B60" s="1">
         <v>205.940188169479</v>
       </c>
-      <c r="C40" s="1">
+      <c r="C60" s="1">
         <v>781927</v>
       </c>
-      <c r="D40" s="1">
+      <c r="D60" s="1">
         <v>55</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>0</v>
-      </c>
-      <c r="B42" t="s">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>13</v>
+      </c>
+      <c r="B62" t="s">
         <v>10</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C62" t="s">
         <v>11</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D62" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
         <v>4</v>
       </c>
-      <c r="B43">
+      <c r="B63">
         <v>0.19112896919250399</v>
       </c>
-      <c r="C43">
+      <c r="C63">
         <v>0.197131156921386</v>
       </c>
-      <c r="D43">
-        <f>C43/B43</f>
+      <c r="D63">
+        <f>C63/B63</f>
         <v>1.0314038617706174</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
         <v>5</v>
       </c>
-      <c r="B44">
+      <c r="B64">
         <v>1.0927269458770701</v>
       </c>
-      <c r="C44">
+      <c r="C64">
         <v>5.2404909133911097</v>
       </c>
-      <c r="D44">
-        <f t="shared" ref="D44:D47" si="0">C44/B44</f>
+      <c r="D64">
+        <f t="shared" ref="D64:D67" si="0">C64/B64</f>
         <v>4.7957917878421714</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
         <v>6</v>
       </c>
-      <c r="B45">
+      <c r="B65">
         <v>0.74349403381347601</v>
       </c>
-      <c r="C45">
+      <c r="C65">
         <v>1.7961950302123999</v>
       </c>
-      <c r="D45">
+      <c r="D65">
         <f t="shared" si="0"/>
         <v>2.415883582817048</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
         <v>7</v>
       </c>
-      <c r="B46">
+      <c r="B66">
         <v>0.98766016960143999</v>
       </c>
-      <c r="C46">
+      <c r="C66">
         <v>2.9849898815154998</v>
       </c>
-      <c r="D46">
+      <c r="D66">
         <f t="shared" si="0"/>
         <v>3.0222843579083092</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
         <v>8</v>
       </c>
-      <c r="B47">
+      <c r="B67">
         <v>14.657764911651601</v>
       </c>
-      <c r="C47">
+      <c r="C67">
         <v>205.940188169479</v>
       </c>
-      <c r="D47">
+      <c r="D67">
         <f t="shared" si="0"/>
         <v>14.049903884443879</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>0</v>
-      </c>
-      <c r="B49" t="s">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>14</v>
+      </c>
+      <c r="B69" t="s">
         <v>10</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C69" t="s">
         <v>11</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D69" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
         <v>4</v>
       </c>
-      <c r="B50">
+      <c r="B70">
         <v>1506</v>
       </c>
-      <c r="C50">
+      <c r="C70">
         <v>1611</v>
       </c>
-      <c r="D50">
-        <f>C50/B50</f>
+      <c r="D70">
+        <f>C70/B70</f>
         <v>1.0697211155378485</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
         <v>5</v>
       </c>
-      <c r="B51">
+      <c r="B71">
         <v>5772</v>
       </c>
-      <c r="C51">
+      <c r="C71">
         <v>29133</v>
       </c>
-      <c r="D51">
-        <f t="shared" ref="D51:D54" si="1">C51/B51</f>
+      <c r="D71">
+        <f t="shared" ref="D71:D74" si="1">C71/B71</f>
         <v>5.0472972972972974</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
         <v>6</v>
       </c>
-      <c r="B52">
+      <c r="B72">
         <v>3500</v>
       </c>
-      <c r="C52">
+      <c r="C72">
         <v>8673</v>
       </c>
-      <c r="D52">
+      <c r="D72">
         <f t="shared" si="1"/>
         <v>2.4780000000000002</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
         <v>7</v>
       </c>
-      <c r="B53">
+      <c r="B73">
         <v>4449</v>
       </c>
-      <c r="C53">
+      <c r="C73">
         <v>13365</v>
       </c>
-      <c r="D53">
+      <c r="D73">
         <f t="shared" si="1"/>
         <v>3.0040458530006742</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
         <v>8</v>
       </c>
-      <c r="B54">
+      <c r="B74">
         <v>60583</v>
       </c>
-      <c r="C54">
+      <c r="C74">
         <v>781927</v>
       </c>
-      <c r="D54">
+      <c r="D74">
         <f t="shared" si="1"/>
         <v>12.906706501823944</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>0</v>
-      </c>
-      <c r="B56" t="s">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>15</v>
+      </c>
+      <c r="B76" t="s">
         <v>10</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C76" t="s">
         <v>11</v>
       </c>
-      <c r="D56" t="s">
+      <c r="D76" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
         <v>4</v>
       </c>
-      <c r="B57" s="3">
+      <c r="B77" s="3">
         <v>14</v>
       </c>
-      <c r="C57" s="3">
+      <c r="C77" s="3">
         <v>14</v>
       </c>
-      <c r="D57">
-        <f>C57/B57</f>
+      <c r="D77">
+        <f>C77/B77</f>
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
         <v>5</v>
       </c>
-      <c r="B58" s="3">
+      <c r="B78" s="3">
         <v>64</v>
       </c>
-      <c r="C58" s="3">
+      <c r="C78" s="3">
         <v>64</v>
       </c>
-      <c r="D58">
-        <f t="shared" ref="D58:D61" si="2">C58/B58</f>
+      <c r="D78">
+        <f t="shared" ref="D78:D81" si="2">C78/B78</f>
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
         <v>6</v>
       </c>
-      <c r="B59" s="3">
+      <c r="B79" s="3">
         <v>97</v>
       </c>
-      <c r="C59" s="3">
+      <c r="C79" s="3">
         <v>97</v>
       </c>
-      <c r="D59">
+      <c r="D79">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
         <v>7</v>
       </c>
-      <c r="B60" s="3">
+      <c r="B80" s="3">
         <v>89</v>
       </c>
-      <c r="C60" s="3">
+      <c r="C80" s="3">
         <v>89</v>
       </c>
-      <c r="D60">
+      <c r="D80">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
         <v>8</v>
       </c>
-      <c r="B61" s="3">
+      <c r="B81" s="3">
         <v>55</v>
       </c>
-      <c r="C61" s="3">
+      <c r="C81" s="3">
         <v>55</v>
       </c>
-      <c r="D61">
+      <c r="D81">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
